--- a/testdata/LoginData.xlsx
+++ b/testdata/LoginData.xlsx
@@ -5,15 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TechnoCredits\Projects\SEP2023\ide\Sep23_Selenium\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TechnoCredits\Projects\TechnoGitProject\Sep23Selenium\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA60306-19F9-4029-9887-27FB8BA44C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51812F24-2A54-4B73-ABF2-BA26D06F9FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>username</t>
   </si>
@@ -43,6 +47,63 @@
   </si>
   <si>
     <t>Success!</t>
+  </si>
+  <si>
+    <t>techno</t>
+  </si>
+  <si>
+    <t>techno@12121234</t>
+  </si>
+  <si>
+    <t>TechPune</t>
+  </si>
+  <si>
+    <t>tech@121</t>
+  </si>
+  <si>
+    <t>Failed! please enter strong password</t>
+  </si>
+  <si>
+    <t>expected result</t>
+  </si>
+  <si>
+    <t>kanani.maulik@gmail.com</t>
+  </si>
+  <si>
+    <t>Sep23@1308</t>
+  </si>
+  <si>
+    <t>Ishani@1</t>
+  </si>
+  <si>
+    <t>patilonkar18@gmail.com</t>
+  </si>
+  <si>
+    <t>Ishani@1234</t>
+  </si>
+  <si>
+    <t>Login Successfully</t>
+  </si>
+  <si>
+    <t>Incorrect email or password.</t>
+  </si>
+  <si>
+    <t>jyotisaxena2006@gmail.com</t>
+  </si>
+  <si>
+    <t>Welcome@1234</t>
+  </si>
+  <si>
+    <t>denishsantoki74@gmail.com</t>
+  </si>
+  <si>
+    <t>dgkankhar@gmail.com</t>
+  </si>
+  <si>
+    <t>Deepak@21</t>
+  </si>
+  <si>
+    <t>techEval</t>
   </si>
 </sst>
 </file>
@@ -95,10 +156,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -380,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -393,7 +455,7 @@
     <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -404,21 +466,200 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3">
+        <v>123123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{0F792A9E-752B-478B-B713-8B137B83CB23}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{0F792A9E-752B-478B-B713-8B137B83CB23}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{F98DE01D-56BD-4509-85CC-3942EE0F547E}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{CFF32E4D-FD2C-4271-8CEF-1F060045D11B}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899B5985-2722-4268-BC29-ED368E85542E}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{24C964C3-71DC-44D2-B53A-A06D421B1FA4}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{23B474B0-0F5E-4449-81F4-1A50FADC4C54}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{D1F44C40-4E60-4040-8852-0153EAC38CCD}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{841DE839-8290-42FF-9256-FAA2E3232B01}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{24D983B0-2DD1-4380-BFF8-4D1DB38877A5}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{29C2269F-FBE7-4DB8-AD93-75BC1A9D4D48}"/>
+    <hyperlink ref="B6" r:id="rId7" xr:uid="{25C6D86C-DE33-417C-8C5C-8E442E7A46EA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D0210C-7FA4-4071-9A9E-E2660A3E03F6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72432EA-763E-4338-9B6D-9DF491B0CE33}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B52A0E-2419-4A1C-B68A-1F73CD4DB0FE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>